--- a/my_work/月和年/ER56778_昆明月平均.xlsx
+++ b/my_work/月和年/ER56778_昆明月平均.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,247 +442,2882 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20.1041723323869</v>
+        <v>2.005241697698544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18.51260087783846</v>
+        <v>2.713184636350037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34.74560475206218</v>
+        <v>3.352763991371514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32.67002290961533</v>
+        <v>3.738934767708163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34.17773968760034</v>
+        <v>4.472342254119042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34.85439147995388</v>
+        <v>3.821704985139603</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31.56015395417916</v>
+        <v>3.615290086504285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36.14024706462737</v>
+        <v>3.064729481765048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>34.16836951591333</v>
+        <v>2.706558814396283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35.73821372955398</v>
+        <v>2.989503442892195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35.83980205654738</v>
+        <v>2.491711117688098</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>37.10786229376195</v>
+        <v>1.937560413678002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>36.90244535485163</v>
+        <v>1.70724752091455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34.41573532163881</v>
+        <v>2.172798343154875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>37.69534715465304</v>
+        <v>3.086194368669967</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>36.0043821794777</v>
+        <v>4.070143683110923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38.63183527580393</v>
+        <v>3.841863871365629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>36.19748794071238</v>
+        <v>3.689047903511744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>36.493326837073</v>
+        <v>3.383188425329481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37.12594146458667</v>
+        <v>2.418577831509105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>34.24657052857174</v>
+        <v>3.459254965811838</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.91900478470345</v>
+        <v>2.84428037498838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>33.12265822898691</v>
+        <v>2.228702222764605</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33.40768845675488</v>
+        <v>1.754952660025694</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>35.08863164092141</v>
+        <v>1.796600101819942</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>36.46029657270175</v>
+        <v>1.847457372176879</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>37.89151605025282</v>
+        <v>2.717562174956075</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35.9928396046862</v>
+        <v>3.631353097376261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>35.61249045938251</v>
+        <v>4.107573089341722</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>34.60900578899749</v>
+        <v>3.553527459556312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>36.48539580614921</v>
+        <v>2.764734380870839</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>35.63584502047069</v>
+        <v>3.175130271986087</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34.28728276504028</v>
+        <v>2.68752643047253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35.54228669139558</v>
+        <v>2.487209878533518</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36.3886915599418</v>
+        <v>2.087886663098499</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37.75026020116238</v>
+        <v>2.07230892099226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36.97401251604295</v>
+        <v>1.537753170254352</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>40.6414942418575</v>
+        <v>2.053174784862359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>41.02210584625349</v>
+        <v>2.600495588041349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37.24051022768536</v>
+        <v>3.446731644845682</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>36.28810973195549</v>
+        <v>3.691783994421512</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41.9123782639053</v>
+        <v>4.045180227856151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42.88725252496655</v>
+        <v>3.153607739232284</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>39.98463050048228</v>
+        <v>3.123627756042421</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43.15162576413761</v>
+        <v>3.247189730524028</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>41.89406746722587</v>
+        <v>2.524347869563719</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43.67589984918767</v>
+        <v>2.653261123877042</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>41.06874115637652</v>
+        <v>1.744349183586725</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>40.37264460759546</v>
+        <v>1.893990044747069</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2.35369272689127</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3.289118980595937</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.62182060248976</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5.405330026668053</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3.683488550681278</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3.012338665072547</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3.203456906660752</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2.697665439864276</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.59087589301682</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2.000911284650721</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.349589157070286</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.646103246292178</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2.390939164175896</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2.812900271314785</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.677453750102004</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.530881056201775</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3.717712356839558</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2.683942054662534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2.555814008095277</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2.117946918443423</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2.159072301089341</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2.050633287133237</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.724731808138645</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.13812697798268</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2.305707351986404</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3.309576104965052</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4.279458249626567</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4.781893929936275</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.980511551678426</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.03237284966824</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.032599659237891</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.958142974560064</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.903793522376549</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2.206083160434898</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.634997636148853</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.715110074008143</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.832331773692034</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3.145623660424527</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.839617286055322</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4.688679047131912</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3.049452924674019</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3.057087947827263</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2.874046595039458</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2.738880403789348</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2.433017543505464</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2.493399682399361</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.851874141006287</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2.164358510368327</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2.559118951785823</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2.280817078383416</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.551342008564784</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4.139525768441493</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4.608789968671064</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4.398151269638406</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2.817143841032224</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2.900081815131664</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2.662720278183602</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2.147385897975921</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.710891594230203</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.962245257515372</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2.033443457722078</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2.987367663113807</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4.375049051410791</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4.309834401119608</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3.135348058956397</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2.864518204289249</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3.355387733443499</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3.336642471837439</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2.43608114543306</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2.411332768677959</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2.372509794840699</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2.222287305702784</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2.88163568409995</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3.58267760706767</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4.284959147469716</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4.571095070621551</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4.444557313362804</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3.11757925265438</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2.934522764921019</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2.974637790782801</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2.473521467752733</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2.098847859520873</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.890617913383799</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.853210422124656</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2.562412570013409</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3.377825151374846</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4.311892381039789</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>5.0136636249201</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>3.959827434744388</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3.039827428616406</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3.20736891420313</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2.657241016751686</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2.367865919548872</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2.098545857139907</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2.351525770865888</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.954449285633213</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2.11413642337103</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>3.360246087793569</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>3.963401984151515</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4.225252491374504</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>3.60788026670003</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2.936028314347181</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>3.024601162798609</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>3.26132329915505</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>3.425714902867783</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2.765264467119609</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.731885921959928</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2.211653945234766</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2.728519343653208</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4.470811455387061</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>3.908414962953181</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5.075697862381742</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>3.479780069322868</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>3.389364186876548</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>3.518595857060558</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2.75586750140518</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2.568715081496945</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.899833098608095</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.68809379027288</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.938174751307782</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2.590017879986609</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3.247416702879908</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4.541040930248557</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5.413868998703764</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>3.713413111229305</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>3.356570034563702</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2.788443762109507</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2.712824872010402</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2.270249152012812</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.655315534781849</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.777046449643511</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2.354247920583793</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3.504880379207484</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4.322772767059328</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4.676813194905394</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>4.103764382973298</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>3.267364760080146</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>3.065086817661396</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>3.458107692631785</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2.826127791657551</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2.251694087501742</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2.506691617023707</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2.294283864518311</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2.66758961175979</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3.330091351773512</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>3.302755060445609</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>3.849977086566762</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>4.256427065431039</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2.973537656984205</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2.978828380636402</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>3.52809471584067</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2.449544950258129</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2.658934563171297</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2.111127646331229</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2.090579851513738</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2.226700609818528</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>3.387170552959733</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>4.224781658071615</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>4.273994670748327</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>4.138448212367071</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>3.916515220220816</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2.472081822261029</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>3.054114413518958</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2.552699391396311</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2.105772050526222</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2.098157914070657</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2.042890321113739</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2.108343641440041</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2.974066781345907</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>4.336826495593021</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4.535970754847265</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>5.538985714252893</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>3.715854610365691</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2.772418514871683</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2.663733004621722</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2.138617233275292</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2.777882693805345</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2.157795024372939</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1.405446995794882</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2.342657713601409</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>3.172958752734557</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>4.171758065988675</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>3.914470976885557</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>4.030063393325117</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>3.888059668149839</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>3.295917201776117</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2.470485479781712</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2.068050668839068</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.802394080190841</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.490118210491777</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.59963631680707</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2.185620331225663</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2.976884548712897</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>3.191614882389826</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4.621144348953186</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>3.534652201962043</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>3.571103618190887</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2.882400620322457</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>3.391419703434649</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2.929192615696303</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.845045964463933</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2.127621700943775</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.662304248407836</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2.167179706901505</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2.633301579555025</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>3.123664345659723</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>4.110075589633685</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>3.094977052463585</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2.657736811675134</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2.653903158582086</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>4.031268489408525</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2.771454000798284</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1.881574586719287</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2.199296449885762</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1.798226457704311</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2.111233820803132</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2.819106654754317</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3.931763975596293</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4.666321798024395</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>4.011644072619545</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2.910577902408218</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2.794192220919689</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.645929236802758</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.049855681280678</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.960225111529887</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.738316887799688</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.768521094216284</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.559668002754914</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.16345376480146</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3.377106974092328</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>4.214832177411806</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>4.40183338811946</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>3.803115518873685</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2.796831497745284</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>3.761065478740073</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3.121055102039714</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2.074521727101156</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1.919078861635644</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1.896069147605883</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1.741047333471824</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2.555701547691287</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>4.185621923346343</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>4.66887084246509</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>4.2232347184338</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>4.186377400186545</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3.459536288155063</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3.115765013098726</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>2.681381875869152</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1.683620295737469</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>2.195296860238931</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1.763842474007513</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2.620186990429857</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3.195264740073205</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3.2413314647408</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>5.339820747330253</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>4.11277661201621</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3.020808253491196</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3.815916213359333</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3.460685853219825</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2.755153753668672</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>2.590463482875838</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1.934971572068954</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1.804136366978671</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2.040600733397124</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2.481115657388453</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3.92027590201924</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>5.127397493793989</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>4.025278044925127</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3.729449261450195</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3.148952579001758</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2.967316631255275</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2.694575468227336</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2.527007961951529</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1.647261057703989</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1.683608813572177</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2.186311097688406</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2.612219264693662</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3.806362385906809</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>4.473241583068384</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>4.230329707537661</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3.281410182124331</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2.759234678230739</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3.599195933896683</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2.994523214034965</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2.261895908103095</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1.827527264932386</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1.580239239165393</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1.886056896749955</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2.289402211028435</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3.419990300974004</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3.850287961829605</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>4.693377082559979</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3.509861122561871</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>2.405952363806606</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3.411188113771541</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>2.519071730473488</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>2.540876671908798</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2.216365553005779</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1.866575780327423</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2.444249159038554</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3.117444742174047</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>4.165269594651044</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>4.233419410093428</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>4.694528346160388</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3.154146420851475</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>2.328987509171174</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>2.821475972645052</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3.262590453635787</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>2.455790784801179</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>2.043110359134087</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1.764383053792986</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>2.008713606272198</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3.18731679298518</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>4.457670825900536</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>4.431790196925594</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3.129789746320269</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3.935440477013735</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2.947767850914383</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2.508295237680832</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3.20309342350306</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>2.318815761360143</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1.951195317517613</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1.555955784077142</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>2.017988295805976</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>2.898455402534481</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3.321262403731342</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3.903840855654968</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3.351932032517522</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>2.903380683991599</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3.316651080292359</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3.017526017730919</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3.098051741610817</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>2.412033585997232</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>2.211095808305515</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1.835064856867554</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>2.397009543120068</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>2.625381819820433</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>3.620626713056243</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>5.228290987022537</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>2.88854737292461</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>3.40111062919045</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>3.544504054941276</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>3.389352779939644</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>2.778319471495981</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1.845605685255604</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1.837445154550871</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1.986092480077872</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1.996675441419709</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>2.996624853144052</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3.732310651355651</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>4.619632575442272</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>3.683005929195617</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>4.153370327740658</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>2.846997750810009</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>2.841975248350083</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>2.94698675936002</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>2.666833696240294</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1.997478240551402</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1.906800086332043</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>2.057431755620733</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>2.932881172533824</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>3.807240792460155</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>5.032495578627604</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>4.309099857981607</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>3.045845712657029</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>3.736928508028559</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>3.613764329114656</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>2.750482149723088</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>2.486402072885475</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>2.282855889063707</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1.694832382465956</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>2.262035851465515</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>2.82414478679975</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>4.01364263414794</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>3.816779825011996</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>4.126169304817181</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>3.371786002710228</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>3.481325136169344</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>3.652383497646186</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>2.98019756596796</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>2.445307948051165</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>2.11166631059583</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1.888573652659865</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>2.659468030938796</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>3.846804995845134</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3.33534471322244</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>4.716355043513635</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>5.601936294391885</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>3.871871494258944</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>3.577521198746978</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>3.142817395229685</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>3.040337157737475</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>2.628728784965289</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>2.270096893868975</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1.950212239138265</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>3.130036948106264</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>3.40983169664578</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>4.80613855985183</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>4.855557742253994</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>3.543660166722594</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>3.541215209386597</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>3.792351808548527</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>3.747575436714797</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>2.969481241931405</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>2.496939122445473</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>2.750431138345282</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1.978886775300941</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>2.040406163787884</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2.989346244839361</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>5.133932998709218</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>3.863275561536777</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>3.755648391330161</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>4.163745968395032</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2.938587528752481</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>3.134492204025168</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>2.63064820518442</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>2.241103401170498</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>2.023491497052574</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>2.325832062901776</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>2.833603838422369</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2.388689502819841</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>3.81744004505828</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>4.582466822288224</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>3.719705878458926</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>3.359107991583782</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>2.981645160639374</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>3.132402797592456</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>3.161830936431879</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2.373587267513445</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>2.171165663632292</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>1.76646382751462</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1.923511882795155</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>3.969707684820984</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>4.340103647393465</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>4.246582346505915</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>4.334487579227466</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>3.730008103639666</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>3.684633497464105</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>3.566125184096719</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>3.748579830003868</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>3.206218552051916</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>2.619592886789084</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>2.542827069116957</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>2.967202537434287</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>4.43433769671682</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>4.723412352275575</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>5.292081890083691</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>5.529309912469256</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>3.656673132934823</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>3.497255271862012</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>3.592416590437012</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>3.092258886475859</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>2.041455608228544</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1.956073497781797</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>2.104775148266872</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>2.205903418301794</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>3.965527406773271</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>3.565288968184102</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>4.654660065951612</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>4.281502991825089</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>4.14161501774784</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>4.033367985463064</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>3.893353107294351</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>2.908458875648827</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>2.374480962118451</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>2.283891540210446</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1.67658016096343</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>2.986268012901699</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>4.364634473967151</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>4.325025122242001</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>5.252613841101362</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>4.809015998773157</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>3.740567327425296</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>3.119741522366406</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>3.658264279522304</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>2.646744401386285</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>2.882354836782671</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>2.899029820967037</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>2.467366126702245</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>2.427534138944673</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>4.423052070421453</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>4.613422573734102</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>5.090052100565884</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>4.510260859556458</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>4.514228819470602</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>3.343886311108577</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>3.55715619577407</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>2.974856368628921</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>2.210793866554218</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>2.448967166409739</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1.779856996057182</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>2.619847441248144</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>3.917747115202297</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>4.625438632699884</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>5.545673998308517</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>5.385684230647963</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>3.774727723154676</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>3.616981569859275</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>3.59937470104167</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>3.418080010650918</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>2.655643126119329</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>2.451928563032075</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>2.064772737222915</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>2.434414022409878</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>3.436922366959299</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>4.919783015383943</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>4.490231744521453</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>5.443044663480709</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>4.327733489595468</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>3.588930962777336</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>2.771581759811821</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>2.62490235594428</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>2.771997069980429</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>2.496201632113478</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1.762998073398431</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>2.343178254755302</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>2.511946300246957</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>4.404790357547495</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>5.009864654207706</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>4.813942411621473</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>3.805384686213202</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>3.780216027004104</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>4.013244960723737</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>2.757659891066923</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>2.688824092901905</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>2.3277719196656</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>1.915821051641063</v>
       </c>
     </row>
   </sheetData>
